--- a/VersionRecords/Version ES_OPTP1/版本Bug和特性计划及评审表_EQ组.xlsx
+++ b/VersionRecords/Version ES_OPTP1/版本Bug和特性计划及评审表_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="813" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -324,6 +324,114 @@
   <si>
     <t>renterpc
 renter</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>C端可显示房源全量同步至ES的mogoroom表</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用填</t>
+  </si>
+  <si>
+    <t>RoomSearchTask</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.RoomSearchTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>凌晨4:00执行</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，依赖roomprice和roomscore的结果</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>可重复执行，如有错，需开发修复</t>
+  </si>
+  <si>
+    <t>只是代码层面修改，配置不需要任何改动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步单词联想数据至ES的wordHint表</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>停用</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.KeywordTask</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeywordTask</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"taskImpl":"com.mogoroom.tasktracker.task.KeywordTask</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -590,6 +698,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -823,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1279,9 @@
     <xf numFmtId="14" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1175,7 +1309,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5463,8 +5636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -5543,45 +5716,105 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+    <row r="2" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A2" s="118"/>
+      <c r="B2" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="P2" s="130" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="77.25" customHeight="1">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="123" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="129"/>
+      <c r="P3" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="131"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
@@ -5630,19 +5863,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
@@ -5680,8 +5913,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5693,8 +5926,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5706,8 +5939,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5719,8 +5952,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5732,8 +5965,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5745,8 +5978,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="112"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5758,8 +5991,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5771,8 +6004,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5813,7 +6046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5833,36 +6066,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -5976,7 +6209,7 @@
       <c r="L5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6178,36 +6411,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6322,7 +6555,7 @@
       <c r="L5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6538,36 +6771,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -6682,7 +6915,7 @@
       <c r="L5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="108" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6900,36 +7133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="115"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="116"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
@@ -7044,7 +7277,7 @@
       <c r="L5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="117" t="s">
+      <c r="M5" s="108" t="s">
         <v>85</v>
       </c>
     </row>
